--- a/analysis/4.1.2/b/ori.xlsx
+++ b/analysis/4.1.2/b/ori.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,19 +10,19 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CB6D0C-708A-634F-881E-D35E7B2A627A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>KP</t>
   </si>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -69,13 +69,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,7 +1023,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1037,7 +1041,7 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+            <a:ext xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393F779C-3F02-8A4A-9B46-87DACC7EC305}"/>
             </a:ext>
           </a:extLst>
@@ -1358,150 +1362,150 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.1640625" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" customWidth="1"/>
-    <col min="3" max="3" width="6.5" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="true"/>
+    <col min="2" max="2" width="3.7109375" customWidth="true"/>
+    <col min="3" max="3" width="6.5703125" customWidth="true"/>
+    <col min="4" max="4" width="13.5703125" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>40.1</v>
+        <v>10.1</v>
       </c>
       <c r="B2">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C2">
         <v>0.01</v>
       </c>
       <c r="D2">
-        <v>161.32656000000026</v>
+        <v>363.11568000000199</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>80.099999999999994</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B3">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C3">
         <v>0.01</v>
       </c>
       <c r="D3">
-        <v>161.69815111111089</v>
+        <v>181.78429999999958</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>130.1</v>
+        <v>30.100000000000001</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C4">
         <v>0.01</v>
       </c>
       <c r="D4">
-        <v>161.86473600000033</v>
+        <v>185.39568000000199</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>70.099999999999994</v>
+        <v>40.100000000000001</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C5">
         <v>0.01</v>
       </c>
       <c r="D5">
-        <v>162.5486697674416</v>
+        <v>161.32656000000026</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>20.100000000000001</v>
+        <v>50.100000000000001</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C6">
         <v>0.01</v>
       </c>
       <c r="D6">
-        <v>181.78429999999958</v>
+        <v>184.39568000000199</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>120.1</v>
+        <v>60.100000000000001</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C7">
         <v>0.01</v>
       </c>
       <c r="D7">
-        <v>182.84384000000009</v>
+        <v>184.16384000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>110.1</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C8">
         <v>0.01</v>
       </c>
       <c r="D8">
-        <v>182.97384000000122</v>
+        <v>162.5486697674416</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>100.1</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C9">
         <v>0.01</v>
       </c>
       <c r="D9">
-        <v>183.1538400000012</v>
+        <v>161.69815111111089</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>90.1</v>
+        <v>90.099999999999994</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C10">
         <v>0.01</v>
@@ -1510,64 +1514,64 @@
         <v>183.38384000000011</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>60.1</v>
+        <v>100.09999999999999</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C11">
         <v>0.01</v>
       </c>
       <c r="D11">
-        <v>184.16384000000008</v>
+        <v>183.1538400000012</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>50.1</v>
+        <v>110.09999999999999</v>
       </c>
       <c r="B12">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C12">
         <v>0.01</v>
       </c>
       <c r="D12">
-        <v>184.39568000000199</v>
+        <v>182.97384000000122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>30.1</v>
+        <v>120.09999999999999</v>
       </c>
       <c r="B13">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C13">
         <v>0.01</v>
       </c>
       <c r="D13">
-        <v>185.39568000000199</v>
+        <v>182.84384000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>10.1</v>
+        <v>130.09999999999999</v>
       </c>
       <c r="B14">
-        <v>0.1</v>
+        <v>0.10000000000000001</v>
       </c>
       <c r="C14">
         <v>0.01</v>
       </c>
       <c r="D14">
-        <v>363.11568000000199</v>
+        <v>161.86473600000033</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D14">
+  <sortState ref="A2:D14">
     <sortCondition ref="D1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/analysis/4.1.2/b/ori.xlsx
+++ b/analysis/4.1.2/b/ori.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>KP</t>
   </si>
@@ -47,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -57,18 +57,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,21 +79,21 @@
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="true"/>
     <col min="2" max="2" width="3.7109375" customWidth="true"/>
-    <col min="3" max="3" width="6.7109375" customWidth="true"/>
+    <col min="3" max="3" width="6.5703125" customWidth="true"/>
     <col min="4" max="4" width="13.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -109,7 +105,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C2">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D2">
         <v>452.92600000000044</v>
@@ -123,7 +119,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C3">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
         <v>298.18448000000336</v>
@@ -137,7 +133,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C4">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D4">
         <v>387.12300000000067</v>
@@ -151,7 +147,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C5">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D5">
         <v>243.99872000000141</v>
@@ -165,7 +161,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C6">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D6">
         <v>231.56273333333291</v>
@@ -179,7 +175,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C7">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D7">
         <v>231.51847999999791</v>
@@ -193,7 +189,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C8">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D8">
         <v>228.60365714285794</v>
@@ -207,7 +203,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C9">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D9">
         <v>200.43651428571371</v>
@@ -221,7 +217,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C10">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D10">
         <v>199.37259999999969</v>
@@ -235,7 +231,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C11">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D11">
         <v>198.49142222222372</v>
@@ -249,7 +245,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C12">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D12">
         <v>197.42026666666578</v>
@@ -263,7 +259,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C13">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D13">
         <v>188.28613333333288</v>
@@ -277,7 +273,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C14">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D14">
         <v>187.64240000000018</v>

--- a/analysis/4.1.2/b/ori.xlsx
+++ b/analysis/4.1.2/b/ori.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>KP</t>
   </si>
@@ -47,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -57,14 +57,22 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -84,16 +92,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
